--- a/frontend-cemos/public/assets/content/direito/8-cnudm/script/fc2.xlsx
+++ b/frontend-cemos/public/assets/content/direito/8-cnudm/script/fc2.xlsx
@@ -473,23 +473,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Além da coluna d'água, a que outras áreas se estende a soberania do Estado costeiro no mar territorial?</t>
+          <t>Qual é a extensão da soberania do Estado costeiro em relação ao mar territorial?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Estende-se ao espaço aéreo sobrejacente, bem como ao leito e ao subsolo deste mar.</t>
+          <t>A soberania estende-se ao espaço aéreo sobrejacente, bem como ao leito e ao subsolo do mar territorial, conforme o Artigo 2, parágrafo 2.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pág 3</t>
+          <t>Pág. 3</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Parte II</t>
+          <t>Parte II - Mar Territorial e Zona Contígua</t>
         </is>
       </c>
     </row>
@@ -501,23 +501,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Qual é o limite máximo de largura que um Estado pode fixar para o seu mar territorial?</t>
+          <t>Qual é o limite máximo de largura do mar territorial permitido pela Convenção?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Até um limite que não ultrapasse 12 milhas marítimas, medidas a partir das linhas de base.</t>
+          <t>Todo Estado tem o direito de fixar a largura até um limite que não ultrapasse 12 milhas marítimas, medidas a partir de linhas de base, conforme o Artigo 3.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pág 3</t>
+          <t>Pág. 3</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Parte II</t>
+          <t>Parte II - Mar Territorial e Zona Contígua</t>
         </is>
       </c>
     </row>
@@ -529,23 +529,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Qual é a linha de base normal para medir a largura do mar territorial, salvo disposição em contrário?</t>
+          <t>Como é definida a "linha de base normal" para medir a largura do mar territorial?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A linha de baixa-mar ao longo da costa, indicada nas cartas marítimas de grande escala reconhecidas oficialmente.</t>
+          <t>É a linha de baixa-mar ao longo da costa, tal como indicada nas cartas marítimas de grande escala reconhecidas oficialmente pelo Estado costeiro, conforme o Artigo 5.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pág 3</t>
+          <t>Pág. 3</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Parte II</t>
+          <t>Parte II - Mar Territorial e Zona Contígua</t>
         </is>
       </c>
     </row>
@@ -557,23 +557,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Qual é o status jurídico das águas situadas no interior da linha de base do mar territorial?</t>
+          <t>Em quais condições geográficas o Estado pode adotar o método das linhas de base retas?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fazem parte das águas interiores do Estado.</t>
+          <t>Nos locais em que a costa apresente recortes profundos e reentrâncias ou exista uma franja de ilhas ao longo da costa na sua proximidade imediata, conforme o Artigo 7, parágrafo 1.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pág 4</t>
+          <t>Pág. 4</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Parte II</t>
+          <t>Parte II - Mar Territorial e Zona Contígua</t>
         </is>
       </c>
     </row>
@@ -585,23 +585,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Qual critério geométrico define se uma reentrância na costa é considerada uma baía jurídica?</t>
+          <t>Qual é o status jurídico das águas situadas no interior da linha de base do mar territorial?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sua superfície deve ser igual ou superior à de um semicírculo que tenha por diâmetro a linha traçada através da entrada da reentrância.</t>
+          <t>Excetuando o disposto na Parte IV (águas arquipelágicas), tais águas fazem parte das águas interiores do Estado, conforme o Artigo 8, parágrafo 1.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pág 4</t>
+          <t>Pág. 4</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Parte II</t>
+          <t>Parte II - Mar Territorial e Zona Contígua</t>
         </is>
       </c>
     </row>
@@ -613,23 +613,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>O que caracteriza fisicamente um "baixio a descoberto"?</t>
+          <t>As instalações marítimas situadas ao largo da costa e ilhas artificiais são consideradas instalações portuárias permanentes para fins de delimitação?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Uma extensão natural de terra que fica acima do nível do mar na baixa-mar, mas submerge na preia-mar.</t>
+          <t>Não, tais instalações e ilhas artificiais não são consideradas instalações portuárias permanentes e não fazem parte da costa para esse fim, conforme o Artigo 11.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pág 4</t>
+          <t>Pág. 4</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Parte II</t>
+          <t>Parte II - Mar Territorial e Zona Contígua</t>
         </is>
       </c>
     </row>
@@ -641,23 +641,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Um baixio a descoberto situado totalmente a uma distância do continente superior à largura do mar territorial possui mar territorial próprio?</t>
+          <t>Como deve ser feita a delimitação do mar territorial entre Estados com costas adjacentes ou situadas frente a frente, salvo acordo em contrário?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Não, nesse caso ele não possui mar territorial próprio.</t>
+          <t>Nenhum Estado pode estender seu mar territorial além da linha mediana cujos pontos são equidistantes das linhas de base de cada Estado, salvo títulos históricos ou circunstâncias especiais, conforme o Artigo 15.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pág 5</t>
+          <t>Pág. 5</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Parte II</t>
+          <t>Parte II - Mar Territorial e Zona Contígua</t>
         </is>
       </c>
     </row>
@@ -669,23 +669,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Salvo acordo em contrário ou títulos históricos, como se define a fronteira do mar territorial entre Estados com costas adjacentes ou frente a frente?</t>
+          <t>Quem goza do direito de passagem inocente pelo mar territorial?</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Pela linha mediana cujos pontos são equidistantes dos pontos mais próximos das linhas de base de cada Estado.</t>
+          <t>Os navios de qualquer Estado, seja este costeiro ou sem litoral, conforme o Artigo 17.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Pág 5</t>
+          <t>Pág. 5</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Parte II</t>
+          <t>Parte II - Mar Territorial e Zona Contígua</t>
         </is>
       </c>
     </row>
@@ -697,23 +697,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Onde o Estado costeiro deve depositar um exemplar das cartas ou listas de coordenadas geográficas das linhas de base?</t>
+          <t>A passagem pelo mar territorial pode incluir a parada e o fundeio?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Junto ao Secretário Geral das Nações Unidas.</t>
+          <t>Sim, mas apenas na medida em que constituam incidentes comuns de navegação, sejam impostos por força maior/dificuldade grave ou para prestar auxílio, conforme o Artigo 18, parágrafo 2.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pág 5</t>
+          <t>Pág. 5</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Parte II</t>
+          <t>Parte II - Mar Territorial e Zona Contígua</t>
         </is>
       </c>
     </row>
@@ -725,23 +725,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>O que torna a passagem de um navio estrangeiro "inocente"?</t>
+          <t>O que torna a passagem de um navio estrangeiro prejudicial à paz e não inocente?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>O fato de não ser prejudicial à paz, à boa ordem ou à segurança do Estado costeiro.</t>
+          <t>A realização de atividades como ameaça ou uso da força, exercícios com armas, coleta de informações em prejuízo da defesa ou poluição intencional e grave, conforme o Artigo 19, parágrafo 2.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Pág 6</t>
+          <t>Pág. 6</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Parte II</t>
+          <t>Parte II - Mar Territorial e Zona Contígua</t>
         </is>
       </c>
     </row>
@@ -753,23 +753,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Qual é a exigência para a navegação de submarinos estrangeiros no mar territorial para exercer o direito de passagem inocente?</t>
+          <t>Qual é a exigência específica para a navegação de submarinos no mar territorial?</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Devem navegar à superfície e arvorar a sua bandeira.</t>
+          <t>Devem navegar à superfície e arvorar a sua bandeira, conforme o Artigo 20.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Pág 6</t>
+          <t>Pág. 6</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Parte II</t>
+          <t>Parte II - Mar Territorial e Zona Contígua</t>
         </is>
       </c>
     </row>
@@ -781,23 +781,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>A realização de atividades de pesca por navio estrangeiro no mar territorial afeta o caráter inocente da passagem?</t>
+          <t>O Estado costeiro pode aplicar leis relativas ao projeto e construção de navios estrangeiros em passagem inocente?</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Sim, é considerada uma atividade prejudicial à paz, boa ordem ou segurança, tornando a passagem não inocente.</t>
+          <t>Não, a menos que tais leis se destinem à aplicação de regras ou normas internacionais geralmente aceitas, conforme o Artigo 21, parágrafo 2.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Pág 6</t>
+          <t>Pág. 6</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Parte II</t>
+          <t>Parte II - Mar Territorial e Zona Contígua</t>
         </is>
       </c>
     </row>
@@ -809,23 +809,23 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>O Estado costeiro pode exigir que navios de propulsão nuclear utilizem rotas específicas no mar territorial?</t>
+          <t>Em que situação o Estado costeiro pode exigir que navios estrangeiros utilizem rotas marítimas específicas no mar territorial?</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sim, pode exigir o uso de rotas marítimas e sistemas de separação de tráfego designados para segurança da navegação.</t>
+          <t>Quando for necessário à segurança da navegação, especialmente para navios-tanques, de propulsão nuclear ou que transportem substâncias perigosas, conforme o Artigo 22, parágrafos 1 e 2.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Pág 7</t>
+          <t>Pág. 7</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Parte II</t>
+          <t>Parte II - Mar Territorial e Zona Contígua</t>
         </is>
       </c>
     </row>
@@ -837,23 +837,23 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Que obrigação o Estado costeiro tem em relação a perigos conhecidos no seu mar territorial?</t>
+          <t>O que devem portar os navios estrangeiros de propulsão nuclear ao exercer o direito de passagem inocente?</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Dar a devida publicidade a qualquer perigo de que tenha conhecimento e que ameace a navegação.</t>
+          <t>Devem ter a bordo os documentos e observar as medidas especiais de precaução estabelecidas nos acordos internacionais para esses navios, conforme o Artigo 23.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Pág 7</t>
+          <t>Pág. 7</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Parte II</t>
+          <t>Parte II - Mar Territorial e Zona Contígua</t>
         </is>
       </c>
     </row>
@@ -865,23 +865,23 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Quais requisitos documentais se aplicam a navios nucleares estrangeiros exercendo passagem inocente?</t>
+          <t>O Estado costeiro pode discriminar navios estrangeiros com base em sua carga ou destino?</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Devem ter a bordo os documentos e observar as medidas especiais de precaução estabelecidas em acordos internacionais.</t>
+          <t>Não, o Estado não deve fazer discriminação de direito ou de fato contra navios de determinado Estado ou que transportem cargas de/para determinado Estado, conforme o Artigo 24, parágrafo 1, alínea b.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Pág 7</t>
+          <t>Pág. 7</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Parte II</t>
+          <t>Parte II - Mar Territorial e Zona Contígua</t>
         </is>
       </c>
     </row>
@@ -893,23 +893,23 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sob quais condições o Estado costeiro pode suspender temporariamente o direito de passagem inocente?</t>
+          <t>Sob qual condição o Estado costeiro pode suspender temporariamente o direito de passagem inocente?</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Se for indispensável para proteger sua segurança (ex: exercícios com armas), em áreas determinadas e após devida publicidade.</t>
+          <t>Se a medida for indispensável para proteger a sua segurança, incluindo exercícios com armas, e somente após ser devidamente tornada pública, conforme o Artigo 25, parágrafo 3.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Pág 8</t>
+          <t>Pág. 8</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Parte II</t>
+          <t>Parte II - Mar Territorial e Zona Contígua</t>
         </is>
       </c>
     </row>
@@ -921,23 +921,23 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Podem ser cobradas taxas de navios estrangeiros apenas pela passagem pelo mar territorial?</t>
+          <t>Podem ser cobradas taxas de navios estrangeiros apenas pela sua passagem pelo mar territorial?</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Não, taxas só podem ser impostas como remuneração de serviços determinados prestados ao navio.</t>
+          <t>Não, taxas só podem ser impostas como remuneração de determinados serviços prestados ao navio, e sem discriminação, conforme o Artigo 26.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Pág 8</t>
+          <t>Pág. 8</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Parte II</t>
+          <t>Parte II - Mar Territorial e Zona Contígua</t>
         </is>
       </c>
     </row>
@@ -949,23 +949,23 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Em regra geral, a jurisdição penal do Estado costeiro deve ser exercida a bordo de navio estrangeiro em passagem?</t>
+          <t>Em regra geral, o Estado costeiro exerce jurisdição penal a bordo de navio estrangeiro durante a passagem pelo mar territorial?</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Não, salvo exceções como quando a infração tem consequências para o Estado costeiro ou perturba a paz do país.</t>
+          <t>Não, exceto em casos específicos como quando a infração tem consequências para o Estado costeiro ou perturba a paz do país, conforme o Artigo 27, parágrafo 1.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Pág 8</t>
+          <t>Pág. 8</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Parte II</t>
+          <t>Parte II - Mar Territorial e Zona Contígua</t>
         </is>
       </c>
     </row>
@@ -977,23 +977,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>O que o Estado costeiro pode fazer se um navio de guerra não cumprir as leis locais e ignorar o pedido de acatamento?</t>
+          <t>O Estado costeiro pode parar um navio estrangeiro em passagem para exercer jurisdição civil sobre uma pessoa a bordo?</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Pode exigir que o navio saia imediatamente do mar territorial.</t>
+          <t>Não, o Estado não deve parar nem desviar o navio para exercer jurisdição civil sobre uma pessoa a bordo, conforme o Artigo 28, parágrafo 1.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Pág 9</t>
+          <t>Pág. 9</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Parte II</t>
+          <t>Parte II - Mar Territorial e Zona Contígua</t>
         </is>
       </c>
     </row>
@@ -1005,23 +1005,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Qual é a extensão máxima da zona contígua?</t>
+          <t>O que define um "navio de guerra" para os fins da Convenção?</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Não pode estender-se além de 24 milhas marítimas, contadas a partir das linhas de base.</t>
+          <t>Navio das forças armadas de um Estado, com sinais exteriores distintivos, sob comando de oficial oficializado e tripulação sob disciplina militar, conforme o Artigo 29.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Pág 9</t>
+          <t>Pág. 9</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Parte II</t>
+          <t>Parte II - Mar Territorial e Zona Contígua</t>
         </is>
       </c>
     </row>
@@ -1033,23 +1033,23 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sobre quais matérias o Estado costeiro exerce fiscalização na zona contígua?</t>
+          <t>Qual é a extensão máxima permitida para a Zona Contígua?</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Leis e regulamentos aduaneiros, fiscais, de imigração ou sanitários.</t>
+          <t>A zona contígua não pode estender-se além de 24 milhas marítimas, contadas a partir das linhas de base do mar territorial, conforme o Artigo 33, parágrafo 2.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Pág 9</t>
+          <t>Pág. 9</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Parte II</t>
+          <t>Parte II - Mar Territorial e Zona Contígua</t>
         </is>
       </c>
     </row>
